--- a/biology/Origine et évolution du vivant/David_Deutsch/David_Deutsch.xlsx
+++ b/biology/Origine et évolution du vivant/David_Deutsch/David_Deutsch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David Deutsch, né le 18 mai 1953, est un physicien israélo-britannique, professeur de physique à l'université d'Oxford. Il se spécialise dans le domaine de l'informatique quantique. Il est notamment connu pour l'algorithme de Deutsch-Jozsa.
 </t>
@@ -511,7 +523,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Deutsch souscrit à l'interprétation des multivers en matière de mécanique quantique à la suite du physicien Hugh Everett. Selon lui ces multivers seraient l'une des 4 composantes de l'« étoffe de la réalité ».
 Outre la théorie quantique, les trois autres fils ou brins qui tissent la réalité sont, selon David Deutsch : l'épistémologie (ou théorie de la connaissance, selon Karl Popper), la théorie du calcul (ou version forte de la théorie de Turing), et la théorie de l'évolution (Charles Darwin, Richard Dawkins).
@@ -543,7 +557,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prix Paul Dirac 1998
 Son travail sur le calcul quantique lui vaut le Prix 2002 du calcul quantique, en compagnie de Serge Haroche (ÉNS) et Benjamin Schumacher (Kenyon College)</t>
@@ -574,7 +590,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'Étoffe de la réalité [« The Fabric of Reality »]  (trad. de l'anglais par Françoise Balibar), Cassini, 2003, 446 p. (ISBN 978-2-84225-024-9)
 Le Commencement de l'infini : les explications transforment le monde [« The Beginning of Infinity »]  (trad. de l'anglais par Françoise Gicquel et Jacques Treiner), Paris, Cassini, 2016, 518 p. (ISBN 978-2-84225-215-1)</t>
